--- a/3_Plantilla Event Storming Restaurante.xlsx
+++ b/3_Plantilla Event Storming Restaurante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4FAA2-CC4B-41CA-8AF4-433127FF36C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7FA073-54AC-44C9-A636-898D08B6B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="743" firstSheet="1" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="743" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos anémico" sheetId="61" r:id="rId1"/>
@@ -1169,6 +1169,33 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,32 +1205,71 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,71 +1283,14 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,56 +1298,47 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1818,10 +1818,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
@@ -1835,10 +1835,10 @@
       <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="108" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
@@ -1853,10 +1853,10 @@
       <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
@@ -1870,8 +1870,8 @@
       <c r="J5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
@@ -1892,17 +1892,17 @@
       <c r="H6" s="80"/>
       <c r="I6" s="81"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="68" t="s">
         <v>140</v>
       </c>
       <c r="D7" s="115"/>
@@ -1914,7 +1914,7 @@
         <v>146</v>
       </c>
       <c r="H7" s="115"/>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="110" t="s">
         <v>148</v>
       </c>
       <c r="J7" s="115"/>
@@ -1929,18 +1929,18 @@
     </row>
     <row r="8" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="115"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="115"/>
       <c r="E8" s="115"/>
       <c r="F8" s="115">
         <v>2</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="110" t="s">
         <v>147</v>
       </c>
       <c r="H8" s="115"/>
-      <c r="I8" s="107"/>
+      <c r="I8" s="110"/>
       <c r="J8" s="115"/>
       <c r="K8" s="115"/>
       <c r="L8" s="23" t="str">
@@ -1950,14 +1950,14 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="115"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="115"/>
       <c r="E9" s="115"/>
       <c r="F9" s="115"/>
-      <c r="G9" s="107"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="115"/>
-      <c r="I9" s="107"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="115"/>
       <c r="K9" s="115"/>
       <c r="L9" s="23" t="str">
@@ -1969,10 +1969,10 @@
       <c r="A10" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="110" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="115"/>
@@ -1984,7 +1984,7 @@
         <v>149</v>
       </c>
       <c r="H10" s="115"/>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="110" t="s">
         <v>151</v>
       </c>
       <c r="J10" s="115"/>
@@ -1999,8 +1999,8 @@
     </row>
     <row r="11" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="115"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="115"/>
       <c r="E11" s="115"/>
       <c r="F11" s="15">
@@ -2010,7 +2010,7 @@
         <v>150</v>
       </c>
       <c r="H11" s="115"/>
-      <c r="I11" s="107"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="115"/>
       <c r="K11" s="115"/>
       <c r="L11" s="23" t="str">
@@ -2022,10 +2022,10 @@
       <c r="A12" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="68" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="115"/>
@@ -2037,7 +2037,7 @@
         <v>149</v>
       </c>
       <c r="H12" s="115"/>
-      <c r="I12" s="107" t="s">
+      <c r="I12" s="110" t="s">
         <v>153</v>
       </c>
       <c r="J12" s="115"/>
@@ -2045,12 +2045,12 @@
         <f>+I7</f>
         <v>Categoría registrada</v>
       </c>
-      <c r="L12" s="107"/>
+      <c r="L12" s="110"/>
     </row>
     <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="115"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="15">
@@ -2060,19 +2060,19 @@
         <v>152</v>
       </c>
       <c r="H13" s="115"/>
-      <c r="I13" s="107"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="115"/>
       <c r="K13" s="115"/>
-      <c r="L13" s="107"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="68" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="115"/>
@@ -2080,7 +2080,7 @@
       <c r="F14" s="115"/>
       <c r="G14" s="115"/>
       <c r="H14" s="115"/>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="110" t="s">
         <v>154</v>
       </c>
       <c r="J14" s="115"/>
@@ -2095,14 +2095,14 @@
     </row>
     <row r="15" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="115"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
       <c r="H15" s="115"/>
-      <c r="I15" s="107"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="115"/>
       <c r="K15" s="115"/>
       <c r="L15" s="23" t="str">
@@ -2114,14 +2114,14 @@
       <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="115"/>
       <c r="G16" s="115"/>
       <c r="H16" s="115"/>
-      <c r="I16" s="107"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="115"/>
       <c r="K16" s="115"/>
       <c r="L16" s="23" t="str">
@@ -2131,11 +2131,40 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -2149,45 +2178,16 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{C4F35BDC-CF84-4601-B151-F31078DAC8DD}"/>
@@ -2391,10 +2391,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
@@ -2426,10 +2426,10 @@
       <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
@@ -2472,26 +2472,26 @@
       <c r="A7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="39">
         <v>1</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="57" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="57" t="str">
+      <c r="J7" s="63"/>
+      <c r="K7" s="60" t="str">
         <f>+I17</f>
         <v>Tipo de identificación consultado</v>
       </c>
@@ -2502,20 +2502,20 @@
     </row>
     <row r="8" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="39">
         <v>2</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="58"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="52" t="str">
         <f>+B15</f>
         <v>Dar de baja de forma definitiva un Tipo de Identificación</v>
@@ -2523,20 +2523,20 @@
     </row>
     <row r="9" spans="1:13" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="72"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="54">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63">
         <v>3</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="58"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="52" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
@@ -2544,45 +2544,45 @@
     </row>
     <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="30" t="str">
         <f>+B21</f>
         <v>Consultar Tipos de Identificación existentes</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="27">
         <v>4</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="63" t="str">
+      <c r="J11" s="54"/>
+      <c r="K11" s="57" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
@@ -2592,135 +2592,135 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="24">
         <v>5</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="64"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="23" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54">
         <v>6</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="64"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="23" t="str">
         <f>+B21</f>
         <v>Consultar Tipos de Identificación existentes</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="65"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="23" t="str">
         <f>+B11</f>
         <v>Modificar Tipo Identificación existente</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="39">
         <v>4</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="57" t="str">
+      <c r="J15" s="63"/>
+      <c r="K15" s="60" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
       <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="39">
         <v>7</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="59"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="62"/>
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="66">
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="88">
         <v>4</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="63" t="s">
+      <c r="H17" s="54"/>
+      <c r="I17" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="63" t="str">
+      <c r="J17" s="54"/>
+      <c r="K17" s="57" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
@@ -2730,55 +2730,55 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="64"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="23" t="str">
         <f>+B15</f>
         <v>Dar de baja de forma definitiva un Tipo de Identificación</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="60">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54">
         <v>8</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="64"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="23" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="65"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="23" t="str">
         <f>+B21</f>
         <v>Consultar Tipos de Identificación existentes</v>
@@ -2788,20 +2788,20 @@
       <c r="A21" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="57" t="str">
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="60" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
@@ -2811,53 +2811,53 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="58"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="29" t="str">
         <f>+B11</f>
         <v>Modificar Tipo Identificación existente</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="58"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="30" t="str">
         <f>+B15</f>
         <v>Dar de baja de forma definitiva un Tipo de Identificación</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="59"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="30" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
@@ -2865,17 +2865,50 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -2892,50 +2925,17 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="H11:H14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3039,8 +3039,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -3132,10 +3132,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
@@ -3167,10 +3167,10 @@
       <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
@@ -3210,29 +3210,29 @@
       <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="39">
         <v>1</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="57" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="60" t="s">
         <v>81</v>
       </c>
       <c r="L7" s="31" t="s">
@@ -3240,67 +3240,67 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="39">
         <v>2</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="92" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="95" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="39">
         <v>3</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="93"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="96"/>
     </row>
     <row r="10" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60">
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54">
         <v>4</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -3308,44 +3308,44 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="39">
         <v>5</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="54"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="35" t="s">
         <v>71</v>
       </c>
@@ -3354,20 +3354,20 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="39">
         <v>6</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
       <c r="K13" s="29" t="s">
         <v>77</v>
       </c>
@@ -3377,135 +3377,175 @@
       <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="102">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="103">
         <v>5</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G14" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="94"/>
+      <c r="L14" s="105"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L15" s="95"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:13" s="32" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="34"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54" t="s">
+      <c r="H16" s="63"/>
+      <c r="I16" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="54"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="92" t="s">
+      <c r="L16" s="95" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="32" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="39"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
       <c r="K17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="93"/>
+      <c r="L17" s="96"/>
     </row>
     <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="24"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="94"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="105"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="24"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="95"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -3522,55 +3562,15 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3679,10 +3679,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
@@ -3696,10 +3696,10 @@
       <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="108" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
@@ -3714,10 +3714,10 @@
       <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
@@ -3731,8 +3731,8 @@
       <c r="J5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
@@ -3753,17 +3753,17 @@
       <c r="H6" s="80"/>
       <c r="I6" s="81"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="29"/>
@@ -3775,11 +3775,11 @@
         <v>89</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="60" t="s">
         <v>92</v>
       </c>
       <c r="J7" s="29"/>
-      <c r="K7" s="54" t="str">
+      <c r="K7" s="63" t="str">
         <f>+I15</f>
         <v>País de origen consultado</v>
       </c>
@@ -3789,9 +3789,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="39">
@@ -3801,18 +3801,18 @@
         <v>88</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="58"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="36" t="str">
         <f>+B13</f>
         <v>Eliminar un país de origen</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="39">
@@ -3822,22 +3822,22 @@
         <v>90</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="59"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="56"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="36" t="str">
         <f>+B15</f>
         <v>Consultar un país de origen</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="57" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="15"/>
@@ -3849,11 +3849,11 @@
         <v>94</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="57" t="s">
         <v>97</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="60" t="str">
+      <c r="K10" s="54" t="str">
         <f>+I7</f>
         <v>País de origen registrado</v>
       </c>
@@ -3863,9 +3863,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="24">
@@ -3875,18 +3875,18 @@
         <v>95</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="64"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="61"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="16" t="str">
         <f>+B15</f>
         <v>Consultar un país de origen</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="24">
@@ -3896,19 +3896,19 @@
         <v>96</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="65"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="62"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="60" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="29"/>
@@ -3919,21 +3919,21 @@
       <c r="G13" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="57" t="s">
+      <c r="H13" s="63"/>
+      <c r="I13" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54" t="str">
+      <c r="J13" s="63"/>
+      <c r="K13" s="63" t="str">
         <f>+I7</f>
         <v>País de origen registrado</v>
       </c>
-      <c r="L13" s="92"/>
+      <c r="L13" s="95"/>
     </row>
     <row r="14" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="39">
@@ -3942,32 +3942,32 @@
       <c r="G14" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="93"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="24"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="107" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60" t="str">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="str">
         <f>+I7</f>
         <v>País de origen registrado</v>
       </c>
@@ -3980,16 +3980,16 @@
       <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="24"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="16" t="str">
         <f>+B13</f>
         <v>Eliminar un país de origen</v>
@@ -3997,6 +3997,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="I10:I12"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -4013,32 +4039,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -4056,7 +4056,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
@@ -4148,10 +4148,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
@@ -4165,10 +4165,10 @@
       <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="108" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
@@ -4183,10 +4183,10 @@
       <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
@@ -4200,8 +4200,8 @@
       <c r="J5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
@@ -4222,17 +4222,17 @@
       <c r="H6" s="80"/>
       <c r="I6" s="81"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:13" s="44" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="97" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="111"/>
@@ -4244,7 +4244,7 @@
         <v>107</v>
       </c>
       <c r="H7" s="111"/>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="97" t="s">
         <v>109</v>
       </c>
       <c r="J7" s="111"/>
@@ -4256,8 +4256,8 @@
     </row>
     <row r="8" spans="1:13" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="114"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="112"/>
       <c r="E8" s="112"/>
       <c r="F8" s="43">
@@ -4267,7 +4267,7 @@
         <v>108</v>
       </c>
       <c r="H8" s="112"/>
-      <c r="I8" s="105"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="112"/>
       <c r="K8" s="43"/>
       <c r="L8" s="49" t="str">
@@ -4331,6 +4331,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
@@ -4347,14 +4355,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{43D8BA08-0705-43E7-9A55-D04FAB208A31}"/>
@@ -4463,10 +4463,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
@@ -4480,10 +4480,10 @@
       <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="108" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
@@ -4498,10 +4498,10 @@
       <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
@@ -4515,8 +4515,8 @@
       <c r="J5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
@@ -4537,33 +4537,33 @@
       <c r="H6" s="80"/>
       <c r="I6" s="81"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="39">
         <v>1</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="57" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="str">
+      <c r="J7" s="63"/>
+      <c r="K7" s="63" t="str">
         <f>+I20</f>
         <v>Platos consultados</v>
       </c>
@@ -4573,88 +4573,88 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="39">
         <v>2</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="36" t="str">
         <f>+B15</f>
         <v>Eliminar de forma definitiva un plato existente</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="32" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="54">
+      <c r="A9" s="93"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63">
         <v>3</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="36" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="36" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="24">
         <v>4</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60" t="str">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54" t="str">
         <f>+I7</f>
         <v>Plato registrado</v>
       </c>
@@ -4664,59 +4664,59 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="24">
         <v>5</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="16" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60">
+      <c r="A13" s="109"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54">
         <v>6</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="16" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="16" t="str">
         <f>+B11</f>
         <v>Modificar un plato existente</v>
@@ -4752,29 +4752,29 @@
       <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60">
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54">
         <v>4</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="54"/>
+      <c r="I16" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60" t="str">
+      <c r="J16" s="54"/>
+      <c r="K16" s="54" t="str">
         <f>+I7</f>
         <v>Plato registrado</v>
       </c>
@@ -4784,80 +4784,80 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="51" t="str">
         <f>+B15</f>
         <v>Eliminar de forma definitiva un plato existente</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60">
+      <c r="A18" s="109"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54">
         <v>7</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="51" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="51" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="32" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89" t="s">
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88" t="str">
+      <c r="J20" s="67"/>
+      <c r="K20" s="67" t="str">
         <f>+I7</f>
         <v>Plato registrado</v>
       </c>
@@ -4867,53 +4867,53 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="29" t="str">
         <f>+B15</f>
         <v>Eliminar de forma definitiva un plato existente</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
       <c r="L22" s="29" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="29" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
@@ -4921,30 +4921,28 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="E16:E19"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="K11:K14"/>
     <mergeCell ref="J11:J14"/>
@@ -4961,29 +4959,31 @@
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="H7:H10"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{8094672D-702C-46E4-9CA9-21C45D823463}"/>
@@ -5092,10 +5092,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
@@ -5109,10 +5109,10 @@
       <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="108" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
@@ -5127,10 +5127,10 @@
       <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="77" t="s">
         <v>7</v>
       </c>
@@ -5144,8 +5144,8 @@
       <c r="J5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
@@ -5166,17 +5166,17 @@
       <c r="H6" s="80"/>
       <c r="I6" s="81"/>
       <c r="J6" s="78"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="68" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="115"/>
@@ -5188,7 +5188,7 @@
         <v>169</v>
       </c>
       <c r="H7" s="115"/>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="110" t="s">
         <v>165</v>
       </c>
       <c r="J7" s="115"/>
@@ -5203,18 +5203,18 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="115"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="115"/>
       <c r="E8" s="115"/>
       <c r="F8" s="115">
         <v>2</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="110" t="s">
         <v>170</v>
       </c>
       <c r="H8" s="115"/>
-      <c r="I8" s="107"/>
+      <c r="I8" s="110"/>
       <c r="J8" s="115"/>
       <c r="K8" s="115"/>
       <c r="L8" s="23" t="str">
@@ -5224,14 +5224,14 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="115"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="115"/>
       <c r="E9" s="115"/>
       <c r="F9" s="115"/>
-      <c r="G9" s="107"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="115"/>
-      <c r="I9" s="107"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="115"/>
       <c r="K9" s="115"/>
       <c r="L9" s="23" t="str">
@@ -5243,10 +5243,10 @@
       <c r="A10" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="110" t="s">
         <v>160</v>
       </c>
       <c r="D10" s="115"/>
@@ -5258,7 +5258,7 @@
         <v>171</v>
       </c>
       <c r="H10" s="115"/>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="110" t="s">
         <v>166</v>
       </c>
       <c r="J10" s="115"/>
@@ -5273,8 +5273,8 @@
     </row>
     <row r="11" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="115"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="115"/>
       <c r="E11" s="115"/>
       <c r="F11" s="24">
@@ -5284,7 +5284,7 @@
         <v>172</v>
       </c>
       <c r="H11" s="115"/>
-      <c r="I11" s="107"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="115"/>
       <c r="K11" s="115"/>
       <c r="L11" s="23" t="str">
@@ -5292,14 +5292,14 @@
         <v>Consultar subcategorías existentes</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="68" t="s">
         <v>161</v>
       </c>
       <c r="D12" s="115"/>
@@ -5311,7 +5311,7 @@
         <v>171</v>
       </c>
       <c r="H12" s="115"/>
-      <c r="I12" s="107" t="s">
+      <c r="I12" s="110" t="s">
         <v>167</v>
       </c>
       <c r="J12" s="115"/>
@@ -5319,12 +5319,12 @@
         <f>+I7</f>
         <v>Subcategoría registrada</v>
       </c>
-      <c r="L12" s="107"/>
+      <c r="L12" s="110"/>
     </row>
     <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="115"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="24">
@@ -5334,19 +5334,19 @@
         <v>173</v>
       </c>
       <c r="H13" s="115"/>
-      <c r="I13" s="107"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="115"/>
       <c r="K13" s="115"/>
-      <c r="L13" s="107"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="68" t="s">
         <v>163</v>
       </c>
       <c r="D14" s="115"/>
@@ -5354,7 +5354,7 @@
       <c r="F14" s="115"/>
       <c r="G14" s="115"/>
       <c r="H14" s="115"/>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="110" t="s">
         <v>168</v>
       </c>
       <c r="J14" s="115"/>
@@ -5369,14 +5369,14 @@
     </row>
     <row r="15" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="115"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
       <c r="H15" s="115"/>
-      <c r="I15" s="107"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="115"/>
       <c r="K15" s="115"/>
       <c r="L15" s="23" t="str">
@@ -5388,14 +5388,14 @@
       <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="115"/>
       <c r="G16" s="115"/>
       <c r="H16" s="115"/>
-      <c r="I16" s="107"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="115"/>
       <c r="K16" s="115"/>
       <c r="L16" s="23" t="str">
@@ -5405,6 +5405,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
@@ -5421,47 +5462,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{7B7D5DB2-D29A-4AF3-97C0-2486D05FEE63}"/>
@@ -5472,6 +5472,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -5609,35 +5624,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D482EFAC-9BEA-400D-AF6E-6B063F3CF270}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5660,9 +5650,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D482EFAC-9BEA-400D-AF6E-6B063F3CF270}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/3_Plantilla Event Storming Restaurante.xlsx
+++ b/3_Plantilla Event Storming Restaurante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7FA073-54AC-44C9-A636-898D08B6B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59C3C42-B108-4957-9FD1-1FBFB402EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="743" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="743" firstSheet="1" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos anémico" sheetId="61" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Cliente" sheetId="24" r:id="rId5"/>
     <sheet name="PaisOrigen" sheetId="68" r:id="rId6"/>
     <sheet name="NumeroCelular" sheetId="70" r:id="rId7"/>
-    <sheet name="Menu" sheetId="71" r:id="rId8"/>
+    <sheet name="Plato" sheetId="71" r:id="rId8"/>
     <sheet name="Subcategoria" sheetId="73" r:id="rId9"/>
     <sheet name="Categoria" sheetId="72" r:id="rId10"/>
   </sheets>
@@ -233,12 +233,6 @@
     <t>Objeto de dominio que contiene la información del número de celular de cada uno de los clientes del restaurante.</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la información del menú del restaurante</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -588,6 +582,12 @@
   </si>
   <si>
     <t>La subcategoría no puede estar siendo utilizada por ningún plato</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la información de los platos del restaurante</t>
   </si>
 </sst>
 </file>
@@ -1051,9 +1051,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1169,6 +1166,24 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,27 +1202,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,112 +1280,55 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,12 +1337,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1353,6 +1350,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1754,133 +1754,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>+'Listado Objetos de Dominio'!A7</f>
         <v>Categoria</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="85" t="str">
         <f>+'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la información de las categorías de platos que existen en el restaurante. Por ejemplo plato principal, postres, bebidas, entradas, etc.</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="109" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1889,282 +1889,256 @@
       <c r="G6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="109"/>
     </row>
     <row r="7" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="15">
+      <c r="B7" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="114"/>
+      <c r="I7" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115" t="str">
+      <c r="J7" s="114"/>
+      <c r="K7" s="114" t="str">
         <f>+I14</f>
         <v>Categorías consultadas</v>
       </c>
-      <c r="L7" s="23" t="str">
+      <c r="L7" s="22" t="str">
         <f>+B10</f>
         <v>Modificar una categoría existente</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115">
+      <c r="A8" s="114"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114">
         <v>2</v>
       </c>
-      <c r="G8" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="23" t="str">
+      <c r="G8" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="114"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="22" t="str">
         <f>+B12</f>
         <v>Eliminar de forma definitiva una categoría existente</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="23" t="str">
+      <c r="A9" s="114"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="22" t="str">
         <f>+B14</f>
         <v>Consultar categorías existentes</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="15">
+      <c r="B10" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="14">
         <v>3</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="114"/>
+      <c r="I10" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115" t="str">
+      <c r="J10" s="114"/>
+      <c r="K10" s="114" t="str">
         <f>+I7</f>
         <v>Categoría registrada</v>
       </c>
-      <c r="L10" s="23" t="str">
+      <c r="L10" s="22" t="str">
         <f>+B12</f>
         <v>Eliminar de forma definitiva una categoría existente</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="15">
+      <c r="A11" s="114"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="14">
         <v>4</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="23" t="str">
+      <c r="G11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="114"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="22" t="str">
         <f>+B14</f>
         <v>Consultar categorías existentes</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="15">
+      <c r="B12" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="14">
         <v>3</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115" t="str">
+      <c r="G12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="114"/>
+      <c r="I12" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114" t="str">
         <f>+I7</f>
         <v>Categoría registrada</v>
       </c>
-      <c r="L12" s="110"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="15">
+      <c r="A13" s="114"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="14">
         <v>5</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="114"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="106"/>
+    </row>
+    <row r="14" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="110"/>
-    </row>
-    <row r="14" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115" t="str">
+      <c r="J14" s="114"/>
+      <c r="K14" s="114" t="str">
         <f>+I7</f>
         <v>Categoría registrada</v>
       </c>
-      <c r="L14" s="23" t="str">
+      <c r="L14" s="22" t="str">
         <f>+B10</f>
         <v>Modificar una categoría existente</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="23" t="str">
+      <c r="A15" s="114"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="22" t="str">
         <f>+B12</f>
         <v>Eliminar de forma definitiva una categoría existente</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="23" t="str">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="22" t="str">
         <f>+B14</f>
         <v>Consultar categorías existentes</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -2180,14 +2154,40 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{C4F35BDC-CF84-4601-B151-F31078DAC8DD}"/>
@@ -2203,7 +2203,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,59 +2222,59 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>61</v>
+      <c r="B3" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>62</v>
+      <c r="B4" s="27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2327,133 +2327,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que representa a cada uno de los tipos de identificación que tienen los clientes dentro del restaurante. Por ejemplo, cédula de ciudadanía, Tarjeta de Identidad, Pasaporte, etc.</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="82" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -2462,421 +2462,452 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="83"/>
-    </row>
-    <row r="7" spans="1:13" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" s="31" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="39">
+      <c r="C7" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="38">
         <v>1</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="60" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60" t="str">
+      <c r="J7" s="53"/>
+      <c r="K7" s="56" t="str">
         <f>+I17</f>
         <v>Tipo de identificación consultado</v>
       </c>
-      <c r="L7" s="52" t="str">
+      <c r="L7" s="51" t="str">
         <f>+B11</f>
         <v>Modificar Tipo Identificación existente</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="39">
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="38">
         <v>2</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="52" t="str">
+      <c r="H8" s="54"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="51" t="str">
         <f>+B15</f>
         <v>Dar de baja de forma definitiva un Tipo de Identificación</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="32" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="63">
+    <row r="9" spans="1:13" s="31" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53">
         <v>3</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="52" t="str">
+      <c r="H9" s="54"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="51" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="30" t="str">
+    <row r="10" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="29" t="str">
         <f>+B21</f>
         <v>Consultar Tipos de Identificación existentes</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="27">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="26">
         <v>4</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="57" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="57" t="str">
+      <c r="J11" s="59"/>
+      <c r="K11" s="62" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
-      <c r="L11" s="23" t="str">
+      <c r="L11" s="22" t="str">
         <f>+B15</f>
         <v>Dar de baja de forma definitiva un Tipo de Identificación</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="24">
+      <c r="A12" s="60"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="23">
         <v>5</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="23" t="str">
+      <c r="H12" s="60"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="22" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="54">
+      <c r="A13" s="60"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59">
         <v>6</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="23" t="str">
+      <c r="H13" s="60"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="22" t="str">
         <f>+B21</f>
         <v>Consultar Tipos de Identificación existentes</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="23" t="str">
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="22" t="str">
         <f>+B11</f>
         <v>Modificar Tipo Identificación existente</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:13" s="31" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="39">
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="38">
         <v>4</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="60" t="str">
+      <c r="J15" s="53"/>
+      <c r="K15" s="56" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="39">
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="38">
         <v>7</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="30"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="88">
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="65">
         <v>4</v>
       </c>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="57" t="s">
+      <c r="H17" s="59"/>
+      <c r="I17" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="57" t="str">
+      <c r="J17" s="59"/>
+      <c r="K17" s="62" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
-      <c r="L17" s="23" t="str">
+      <c r="L17" s="22" t="str">
         <f>+B11</f>
         <v>Modificar Tipo Identificación existente</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="23" t="str">
+      <c r="A18" s="60"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="22" t="str">
         <f>+B15</f>
         <v>Dar de baja de forma definitiva un Tipo de Identificación</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="54">
+      <c r="A19" s="60"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="59">
         <v>8</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="23" t="str">
+      <c r="H19" s="60"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="22" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="23" t="str">
+      <c r="A20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="22" t="str">
         <f>+B21</f>
         <v>Consultar Tipos de Identificación existentes</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="32" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:12" s="31" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="60" t="str">
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="56" t="str">
         <f>+I7</f>
         <v>Tipo Identificación registrado</v>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="L21" s="29" t="str">
         <f>+B7</f>
         <v>Registrar nuevo tipo identificación</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+    <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="29" t="str">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="28" t="str">
         <f>+B11</f>
         <v>Modificar Tipo Identificación existente</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="30" t="str">
+    <row r="23" spans="1:12" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="29" t="str">
         <f>+B15</f>
         <v>Dar de baja de forma definitiva un Tipo de Identificación</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="30" t="str">
+    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="29" t="str">
         <f>+B17</f>
         <v>Cambiar el estado de un Tipo Identificación existente</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="K15:K16"/>
@@ -2893,49 +2924,18 @@
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2963,69 +2963,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3039,9 +3039,9 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3051,8 +3051,8 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="43" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" style="1" bestFit="1" customWidth="1"/>
@@ -3068,133 +3068,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que representa a cada uno de los clientes que realiza una reserva en el restaurante</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="82" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -3203,333 +3203,325 @@
       <c r="G6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="83"/>
-    </row>
-    <row r="7" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" s="31" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="60" t="s">
+    </row>
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="38">
+        <v>2</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="39">
-        <v>1</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="38">
+        <v>3</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63" t="s">
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="92"/>
+    </row>
+    <row r="10" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59">
+        <v>4</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="98"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="31" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="38">
+        <v>5</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="96"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="38">
+        <v>6</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="101">
+        <v>5</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="93"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="94"/>
+    </row>
+    <row r="16" spans="1:13" s="31" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="53"/>
+      <c r="K16" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="31" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="96"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="92"/>
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="39">
-        <v>2</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="39">
-        <v>3</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="96"/>
-    </row>
-    <row r="10" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54">
-        <v>4</v>
-      </c>
-      <c r="G10" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="39">
-        <v>5</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="39">
-        <v>6</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="103">
-        <v>5</v>
-      </c>
-      <c r="G14" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="105"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="106"/>
-    </row>
-    <row r="16" spans="1:13" s="32" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="95" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="32" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="94"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="96"/>
-    </row>
-    <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="105"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="93"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="106"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="L8:L9"/>
@@ -3546,31 +3538,39 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3598,7 +3598,7 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="36" customWidth="1"/>
     <col min="7" max="7" width="19.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -3615,133 +3615,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>PaisOrigen</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="85" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información del país de origen que pueden tener los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="109" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -3750,279 +3750,253 @@
       <c r="G6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
-    </row>
-    <row r="7" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="109"/>
+    </row>
+    <row r="7" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="39">
-        <v>1</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="63" t="str">
+      <c r="H7" s="28"/>
+      <c r="I7" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="53" t="str">
         <f>+I15</f>
         <v>País de origen consultado</v>
       </c>
-      <c r="L7" s="36" t="str">
+      <c r="L7" s="35" t="str">
         <f>+B10</f>
         <v>Modificar un país de origen</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="39">
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="38">
         <v>2</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="36" t="str">
+      <c r="G8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="35" t="str">
         <f>+B13</f>
         <v>Eliminar un país de origen</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="39">
+    <row r="9" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="38">
         <v>3</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="36" t="str">
+      <c r="G9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="35" t="str">
         <f>+B15</f>
         <v>Consultar un país de origen</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="24">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="23">
         <v>4</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="54" t="str">
+      <c r="G10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="59" t="str">
         <f>+I7</f>
         <v>País de origen registrado</v>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="15" t="str">
         <f>+B13</f>
         <v>Eliminar un país de origen</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="24">
+      <c r="A11" s="107"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="16" t="str">
+      <c r="G11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="15" t="str">
         <f>+B15</f>
         <v>Consultar un país de origen</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="24">
+      <c r="A12" s="98"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="23">
         <v>6</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="38">
+        <v>4</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="39">
-        <v>4</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63" t="str">
+      <c r="J13" s="53"/>
+      <c r="K13" s="53" t="str">
         <f>+I7</f>
         <v>País de origen registrado</v>
       </c>
-      <c r="L13" s="95"/>
-    </row>
-    <row r="14" spans="1:13" s="32" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="39">
+      <c r="L13" s="91"/>
+    </row>
+    <row r="14" spans="1:13" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="105"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="38">
         <v>7</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="92"/>
+    </row>
+    <row r="15" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="96"/>
-    </row>
-    <row r="15" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="110" t="s">
+      <c r="C15" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54" t="str">
+      <c r="J15" s="59"/>
+      <c r="K15" s="59" t="str">
         <f>+I7</f>
         <v>País de origen registrado</v>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="15" t="str">
         <f>+B10</f>
         <v>Modificar un país de origen</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="16" t="str">
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="15" t="str">
         <f>+B13</f>
         <v>Eliminar un país de origen</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="I10:I12"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -4039,6 +4013,32 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -4067,7 +4067,7 @@
     <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
@@ -4084,133 +4084,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>NumeroCelular</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="85" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la información del número de celular de cada uno de los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="109" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -4219,126 +4219,118 @@
       <c r="G6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
-    </row>
-    <row r="7" spans="1:13" s="44" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="109"/>
+    </row>
+    <row r="7" spans="1:13" s="43" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45" t="s">
+      <c r="H7" s="110"/>
+      <c r="I7" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="49" t="str">
+      <c r="J7" s="110"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="48" t="str">
         <f>+B9</f>
         <v>Modificar un numero de celular existente</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="43">
+    <row r="8" spans="1:13" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="113"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="42">
         <v>2</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="49" t="str">
+      <c r="G8" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="48" t="str">
         <f>+B10</f>
         <v>Consultar un número de celular existente</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="44" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:13" s="43" customFormat="1" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
+        <v>3</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43">
-        <v>3</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="str">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="str">
         <f>+I7</f>
         <v>Numero de celular registrado</v>
       </c>
-      <c r="L9" s="49" t="str">
+      <c r="L9" s="48" t="str">
         <f>+B10</f>
         <v>Consultar un número de celular existente</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="44" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:13" s="43" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="50"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
@@ -4355,6 +4347,14 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{43D8BA08-0705-43E7-9A55-D04FAB208A31}"/>
@@ -4371,8 +4371,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,7 +4382,7 @@
     <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
@@ -4399,133 +4399,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
-        <v>Menu</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+        <v>Plato</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="85" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
-        <v>Objeto de dominio que contiene la información del menú del restaurante</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+        <v>Objeto de dominio que contiene la información de los platos del restaurante</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="109" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -4534,415 +4534,418 @@
       <c r="G6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
-    </row>
-    <row r="7" spans="1:13" s="32" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="109"/>
+    </row>
+    <row r="7" spans="1:13" s="31" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="39">
+      <c r="B7" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="38">
         <v>1</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63" t="str">
+      <c r="G7" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53" t="str">
         <f>+I20</f>
         <v>Platos consultados</v>
       </c>
-      <c r="L7" s="36" t="str">
+      <c r="L7" s="35" t="str">
         <f>+B11</f>
         <v>Modificar un plato existente</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="39">
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="38">
         <v>2</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="36" t="str">
+      <c r="G8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="35" t="str">
         <f>+B15</f>
         <v>Eliminar de forma definitiva un plato existente</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="32" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="63">
+    <row r="9" spans="1:13" s="31" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="105"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53">
         <v>3</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="36" t="str">
+      <c r="G9" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="35" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="36" t="str">
+    <row r="10" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="35" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="24">
+      <c r="B11" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="23">
         <v>4</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54" t="str">
+      <c r="G11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59" t="str">
         <f>+I7</f>
         <v>Plato registrado</v>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="15" t="str">
         <f>+B15</f>
         <v>Eliminar de forma definitiva un plato existente</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="24">
+      <c r="A12" s="107"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="23">
         <v>5</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="16" t="str">
+      <c r="G12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="15" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="54">
+      <c r="A13" s="107"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59">
         <v>6</v>
       </c>
-      <c r="G13" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="16" t="str">
+      <c r="G13" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="15" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="16" t="str">
+      <c r="A14" s="98"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="15" t="str">
         <f>+B11</f>
         <v>Modificar un plato existente</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="32" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:13" s="31" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="39">
+      <c r="B15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="38">
         <v>4</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29" t="str">
+      <c r="G15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28" t="str">
         <f>+I7</f>
         <v>Plato registrado</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:13" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59">
         <v>4</v>
       </c>
-      <c r="G16" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54" t="str">
+      <c r="G16" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59" t="str">
         <f>+I7</f>
         <v>Plato registrado</v>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="16" t="str">
         <f>+B11</f>
         <v>Modificar un plato existente</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="51" t="str">
+      <c r="A17" s="107"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="50" t="str">
         <f>+B15</f>
         <v>Eliminar de forma definitiva un plato existente</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="54">
+      <c r="A18" s="107"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59">
         <v>7</v>
       </c>
-      <c r="G18" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="51" t="str">
+      <c r="G18" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="60"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="50" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="51" t="str">
+      <c r="A19" s="98"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="50" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="32" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:12" s="31" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67" t="str">
+      <c r="B20" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87" t="str">
         <f>+I7</f>
         <v>Plato registrado</v>
       </c>
-      <c r="L20" s="29" t="str">
+      <c r="L20" s="28" t="str">
         <f>+B11</f>
         <v>Modificar un plato existente</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="29" t="str">
+    <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="87"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="28" t="str">
         <f>+B15</f>
         <v>Eliminar de forma definitiva un plato existente</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="29" t="str">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="28" t="str">
         <f>+B16</f>
         <v>Cambiar el estado de un plato existente</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="29" t="str">
+    <row r="23" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="28" t="str">
         <f>+B20</f>
         <v>Consultar platos existentes</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="K11:K14"/>
     <mergeCell ref="J11:J14"/>
@@ -4959,31 +4962,28 @@
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="H7:H10"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{8094672D-702C-46E4-9CA9-21C45D823463}"/>
@@ -5001,7 +5001,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5011,7 +5011,7 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -5028,133 +5028,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>+'Listado Objetos de Dominio'!A8</f>
         <v>Subcategoria</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="str">
+      <c r="B3" s="85" t="str">
         <f>+'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene la información de las subcategorias de los productos que existen en el restaurante. Por ejemplo, entradas frías, ensaladas, sopas, pollo, cerdo, parrilla.</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="109" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -5163,289 +5163,248 @@
       <c r="G6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="109"/>
     </row>
     <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="24">
+      <c r="B7" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="23">
         <v>1</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115" t="str">
+      <c r="G7" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="114"/>
+      <c r="I7" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114" t="str">
         <f>+I14</f>
         <v>Subcategorías consultadas</v>
       </c>
-      <c r="L7" s="23" t="str">
+      <c r="L7" s="22" t="str">
         <f>+B10</f>
         <v>Modificar una subcategoría existente</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="115"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115">
+      <c r="A8" s="114"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114">
         <v>2</v>
       </c>
-      <c r="G8" s="110" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="23" t="str">
+      <c r="G8" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="114"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="22" t="str">
         <f>+B12</f>
         <v>Eliminar de forma definitiva una subcategoría existente</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="23" t="str">
+      <c r="A9" s="114"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="22" t="str">
         <f>+B14</f>
         <v>Consultar subcategorías existentes</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="24">
+      <c r="B10" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="23">
         <v>3</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115" t="str">
+      <c r="G10" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="114"/>
+      <c r="I10" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114" t="str">
         <f>+I7</f>
         <v>Subcategoría registrada</v>
       </c>
-      <c r="L10" s="23" t="str">
+      <c r="L10" s="22" t="str">
         <f>+B12</f>
         <v>Eliminar de forma definitiva una subcategoría existente</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="24">
+      <c r="A11" s="114"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="23">
         <v>4</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="23" t="str">
+      <c r="G11" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="114"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="22" t="str">
         <f>+B14</f>
         <v>Consultar subcategorías existentes</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="24">
+      <c r="B12" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="23">
         <v>3</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115" t="str">
+      <c r="G12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="114"/>
+      <c r="I12" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114" t="str">
         <f>+I7</f>
         <v>Subcategoría registrada</v>
       </c>
-      <c r="L12" s="110"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="24">
+      <c r="A13" s="114"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="23">
         <v>5</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="110"/>
+      <c r="G13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="114"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="106"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="110" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115" t="str">
+      <c r="B14" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114" t="str">
         <f>+I7</f>
         <v>Subcategoría registrada</v>
       </c>
-      <c r="L14" s="23" t="str">
+      <c r="L14" s="22" t="str">
         <f>+B10</f>
         <v>Modificar una subcategoría existente</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="23" t="str">
+      <c r="A15" s="114"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="22" t="str">
         <f>+B12</f>
         <v>Eliminar de forma definitiva una subcategoría existente</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="23" t="str">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="22" t="str">
         <f>+B14</f>
         <v>Consultar subcategorías existentes</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
@@ -5462,6 +5421,47 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{7B7D5DB2-D29A-4AF3-97C0-2486D05FEE63}"/>
@@ -5472,18 +5472,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5625,14 +5625,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5645,6 +5637,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
